--- a/SOARH_NJ_R_Mapping/unjoinable_units_by_type_NJ_2022.xlsx
+++ b/SOARH_NJ_R_Mapping/unjoinable_units_by_type_NJ_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willbpayne/Documents/GitHub/SOARH_NJ/SOARH_NJ_R_Mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{09D75D51-D60D-334B-9561-C96C660BBBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46A1D80A-513C-9F4D-9A2C-0F146F7D8735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480"/>
   </bookViews>
